--- a/Supplementary Codes/Different Conv Blocks Comparison.xlsx
+++ b/Supplementary Codes/Different Conv Blocks Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1287,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="E7:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
